--- a/SequencingSummary/20210830_L3_fastq_dual.xlsx
+++ b/SequencingSummary/20210830_L3_fastq_dual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flowcell Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t xml:space="preserve">Clusters (Raw) </t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">Yield (MBases)</t>
   </si>
   <si>
+    <t xml:space="preserve">,660,044,288</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lane </t>
   </si>
   <si>
@@ -72,6 +75,63 @@
     <t xml:space="preserve">Index</t>
   </si>
   <si>
+    <t xml:space="preserve">HH5K7DSX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766-38_Fat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTGTCAGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766-38_Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCCTTCGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">766-47_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTTCGGTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCAGCTTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTGAGAGTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776-49_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATGTATCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCGCACTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count </t>
   </si>
   <si>
@@ -79,6 +139,93 @@
   </si>
   <si>
     <t xml:space="preserve">FromTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index(i7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2_workflow_a(i5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2_workflow_b(i5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAAGCTCATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATGAGCTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAATCGTTGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAACGATTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTTGGTGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACACCAAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTACCAGGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACCTGGTAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTGTGCATGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCATGCACAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTACGGGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGCCCGTAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGAATACAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTGTATTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGGGGGGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGATCTCGGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTTGGTGTC</t>
   </si>
 </sst>
 </file>
@@ -111,12 +258,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +317,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -183,13 +340,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.59"/>
@@ -205,6 +362,17 @@
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2876564972</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>917624</v>
       </c>
     </row>
   </sheetData>
@@ -223,62 +391,370 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>58.49</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>63.51</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>84.96</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>80.19</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>61.48</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>60.49</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>60.86</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>54.53</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2876562024</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>917623</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>30.61</v>
       </c>
     </row>
   </sheetData>
@@ -297,75 +773,289 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="20.77"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
+      <c r="G1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>510220160</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>500970140</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>371057540</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>365133960</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>351235700</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>338609040</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>326815900</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>16457880</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7943600</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3337180</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
     </row>

--- a/SequencingSummary/20210830_L3_fastq_dual.xlsx
+++ b/SequencingSummary/20210830_L3_fastq_dual.xlsx
@@ -306,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +321,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,7 +350,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.59"/>
@@ -394,7 +398,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,14 +779,14 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
@@ -863,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -890,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -917,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -944,7 +948,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -971,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -998,7 +1002,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="0" t="s">
